--- a/data/trans_orig/P33_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>44336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33272</v>
+        <v>32183</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58527</v>
+        <v>57529</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1650293021088621</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1238459896390992</v>
+        <v>0.1197938947935589</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2178492326925509</v>
+        <v>0.2141366407028895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -765,19 +765,19 @@
         <v>40447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28105</v>
+        <v>29795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53593</v>
+        <v>53514</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1567978665196462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1089513583045246</v>
+        <v>0.1155034773505498</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2077599034524622</v>
+        <v>0.2074518519401563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -786,19 +786,19 @@
         <v>84784</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68431</v>
+        <v>68051</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104362</v>
+        <v>103994</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1609972021299305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1299441136700489</v>
+        <v>0.1292227467045111</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1981745541570908</v>
+        <v>0.1974762536496243</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>224321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>210130</v>
+        <v>211128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>235385</v>
+        <v>236474</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8349706978911379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.782150767307449</v>
+        <v>0.7858633592971102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8761540103609008</v>
+        <v>0.880206105206441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -836,19 +836,19 @@
         <v>217511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>204365</v>
+        <v>204444</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>229853</v>
+        <v>228163</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8432021334803539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7922400965475376</v>
+        <v>0.7925481480598436</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8910486416954753</v>
+        <v>0.8844965226494501</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>430</v>
@@ -857,19 +857,19 @@
         <v>441831</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>422253</v>
+        <v>422621</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>458184</v>
+        <v>458564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8390027978700695</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8018254458429093</v>
+        <v>0.8025237463503758</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8700558863299511</v>
+        <v>0.8707772532954889</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>115610</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97235</v>
+        <v>97901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136628</v>
+        <v>137413</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2344666926908321</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1972004670295492</v>
+        <v>0.1985528099722126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2770935469997176</v>
+        <v>0.2786860941932279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>170</v>
@@ -982,19 +982,19 @@
         <v>171532</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>150616</v>
+        <v>153252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193742</v>
+        <v>195027</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3416893547951893</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3000256624079937</v>
+        <v>0.3052770634598114</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3859316281049462</v>
+        <v>0.3884907167197277</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>281</v>
@@ -1003,19 +1003,19 @@
         <v>287141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>259363</v>
+        <v>259840</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>318067</v>
+        <v>316403</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2885594775136468</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2606435397844752</v>
+        <v>0.2611234187184688</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3196373086175064</v>
+        <v>0.3179659053027284</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>377465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356447</v>
+        <v>355662</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>395840</v>
+        <v>395174</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7655333073091679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7229064530002823</v>
+        <v>0.7213139058067715</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8027995329704505</v>
+        <v>0.8014471900277874</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>327</v>
@@ -1053,19 +1053,19 @@
         <v>330479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308269</v>
+        <v>306984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>351395</v>
+        <v>348759</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6583106452048106</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6140683718950538</v>
+        <v>0.6115092832802725</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6999743375920063</v>
+        <v>0.6947229365401887</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>681</v>
@@ -1074,19 +1074,19 @@
         <v>707945</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>677019</v>
+        <v>678683</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>735723</v>
+        <v>735246</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7114405224863531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6803626913824933</v>
+        <v>0.6820340946972715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7393564602155246</v>
+        <v>0.7388765812815311</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>40240</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28146</v>
+        <v>29207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52777</v>
+        <v>54029</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1281578230618114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08964041830796902</v>
+        <v>0.09301838709884823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1680846366816639</v>
+        <v>0.1720749376990486</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -1199,19 +1199,19 @@
         <v>67517</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53335</v>
+        <v>53535</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81970</v>
+        <v>81948</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2036949437372238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.160910199885789</v>
+        <v>0.1615126141445886</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2473003357312723</v>
+        <v>0.2472339881850644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -1220,19 +1220,19 @@
         <v>107757</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89389</v>
+        <v>89477</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126718</v>
+        <v>128276</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1669487799732604</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1384917494955097</v>
+        <v>0.1386279956925902</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1963250878355871</v>
+        <v>0.1987399327277665</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>273748</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>261211</v>
+        <v>259959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285842</v>
+        <v>284781</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8718421769381887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.831915363318336</v>
+        <v>0.8279250623009511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9103595816920307</v>
+        <v>0.9069816129011516</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>265</v>
@@ -1270,19 +1270,19 @@
         <v>263943</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249490</v>
+        <v>249512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>278125</v>
+        <v>277925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7963050562627763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7526996642687277</v>
+        <v>0.7527660118149341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.839089800114211</v>
+        <v>0.8384873858554114</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>532</v>
@@ -1291,19 +1291,19 @@
         <v>537692</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>518731</v>
+        <v>517173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>556060</v>
+        <v>555972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8330512200267396</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.803674912164413</v>
+        <v>0.8012600672722336</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8615082505044906</v>
+        <v>0.8613720043074098</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>45603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34145</v>
+        <v>34683</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59703</v>
+        <v>60333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1306523738188202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09782450510899281</v>
+        <v>0.09936471692250179</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.171046635645211</v>
+        <v>0.1728508158831742</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -1416,19 +1416,19 @@
         <v>67839</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54260</v>
+        <v>54668</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83250</v>
+        <v>83640</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1826286631732634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1460726791231601</v>
+        <v>0.1471729212302724</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2241190048172525</v>
+        <v>0.2251673041679159</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -1437,19 +1437,19 @@
         <v>113442</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94830</v>
+        <v>97384</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133442</v>
+        <v>136445</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1574489081814708</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.131616402461977</v>
+        <v>0.1351620242082942</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1852081642942556</v>
+        <v>0.1893755349119971</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>303441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>289341</v>
+        <v>288711</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>314899</v>
+        <v>314361</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8693476261811798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8289533643547891</v>
+        <v>0.8271491841168258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9021754948910073</v>
+        <v>0.9006352830774982</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>314</v>
@@ -1487,19 +1487,19 @@
         <v>303617</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288206</v>
+        <v>287816</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>317196</v>
+        <v>316788</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8173713368267367</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7758809951827476</v>
+        <v>0.7748326958320841</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8539273208768399</v>
+        <v>0.8528270787697276</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>622</v>
@@ -1508,19 +1508,19 @@
         <v>607058</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>587058</v>
+        <v>584055</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>625670</v>
+        <v>623116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8425510918185292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8147918357057443</v>
+        <v>0.8106244650880031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8683835975380233</v>
+        <v>0.8648379757917058</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>51485</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38701</v>
+        <v>39681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64300</v>
+        <v>65400</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2532380023786193</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1903570242448564</v>
+        <v>0.1951783801240713</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.316267163813555</v>
+        <v>0.3216788281338127</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -1633,19 +1633,19 @@
         <v>61197</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48975</v>
+        <v>48611</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75118</v>
+        <v>76297</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2961029524707118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.23696546432444</v>
+        <v>0.2352082741356674</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3634602428386925</v>
+        <v>0.3691655963819581</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -1654,19 +1654,19 @@
         <v>112682</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94594</v>
+        <v>95730</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132249</v>
+        <v>131146</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2748464210536959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2307283242829857</v>
+        <v>0.2334975837533012</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3225730887194027</v>
+        <v>0.3198827752017001</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>151823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139008</v>
+        <v>137908</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164607</v>
+        <v>163627</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7467619976213807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6837328361864451</v>
+        <v>0.6783211718661879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8096429757551438</v>
+        <v>0.8048216198759288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -1704,19 +1704,19 @@
         <v>145477</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131556</v>
+        <v>130377</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>157699</v>
+        <v>158063</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7038970475292882</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6365397571613074</v>
+        <v>0.6308344036180419</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.76303453567556</v>
+        <v>0.7647917258643325</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>293</v>
@@ -1725,19 +1725,19 @@
         <v>297300</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>277733</v>
+        <v>278836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>315388</v>
+        <v>314252</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7251535789463041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6774269112805974</v>
+        <v>0.6801172247982999</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7692716757170143</v>
+        <v>0.7665024162466988</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>42798</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32976</v>
+        <v>32609</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55784</v>
+        <v>55624</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1591720941034448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.122642467886644</v>
+        <v>0.1212772948990142</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.20747129351963</v>
+        <v>0.2068735532213971</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1850,19 +1850,19 @@
         <v>65739</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52419</v>
+        <v>52541</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81275</v>
+        <v>82203</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2380481412007351</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1898137121073517</v>
+        <v>0.1902541575962761</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2943042752667232</v>
+        <v>0.2976640585069861</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -1871,19 +1871,19 @@
         <v>108537</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90627</v>
+        <v>89448</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126181</v>
+        <v>127814</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1991371092216889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1662759165021849</v>
+        <v>0.1641127311075227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2315089195415186</v>
+        <v>0.2345051123539814</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>226079</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213093</v>
+        <v>213253</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235901</v>
+        <v>236268</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8408279058965552</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7925287064803701</v>
+        <v>0.7931264467786029</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8773575321133561</v>
+        <v>0.8787227051009858</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>205</v>
@@ -1921,19 +1921,19 @@
         <v>210421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194885</v>
+        <v>193957</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>223741</v>
+        <v>223619</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.761951858799265</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7056957247332768</v>
+        <v>0.7023359414930139</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8101862878926483</v>
+        <v>0.8097458424037239</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>425</v>
@@ -1942,19 +1942,19 @@
         <v>436501</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>418857</v>
+        <v>417224</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>454411</v>
+        <v>455590</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8008628907783112</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7684910804584814</v>
+        <v>0.7654948876460186</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8337240834978153</v>
+        <v>0.8358872688924774</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>93878</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76285</v>
+        <v>77127</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>112878</v>
+        <v>113264</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1549221124804616</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1258881170916377</v>
+        <v>0.1272787977383862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1862754874398471</v>
+        <v>0.1869133664794333</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>145</v>
@@ -2067,19 +2067,19 @@
         <v>147865</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>130131</v>
+        <v>127939</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169439</v>
+        <v>168606</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2329220044803073</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2049877070758214</v>
+        <v>0.2015338766114619</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2669064149532494</v>
+        <v>0.2655936777994466</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>237</v>
@@ -2088,19 +2088,19 @@
         <v>241743</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>212775</v>
+        <v>215499</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>270487</v>
+        <v>269625</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1948289895250016</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1714824814409775</v>
+        <v>0.1736784266250741</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2179950541697272</v>
+        <v>0.2173003657629886</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>512093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>493093</v>
+        <v>492707</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>529686</v>
+        <v>528844</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8450778875195384</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8137245125601537</v>
+        <v>0.8130866335205666</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8741118829083624</v>
+        <v>0.8727212022616138</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>473</v>
@@ -2138,19 +2138,19 @@
         <v>486960</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>465386</v>
+        <v>466219</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>504694</v>
+        <v>506886</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7670779955196927</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7330935850467505</v>
+        <v>0.7344063222005536</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7950122929241786</v>
+        <v>0.7984661233885383</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>969</v>
@@ -2159,19 +2159,19 @@
         <v>999053</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>970309</v>
+        <v>971171</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1028021</v>
+        <v>1025297</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8051710104749984</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7820049458302728</v>
+        <v>0.7826996342370117</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8285175185590226</v>
+        <v>0.8263215733749262</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>164428</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>142638</v>
+        <v>141862</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>190575</v>
+        <v>188243</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2262713783406704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1962863544482507</v>
+        <v>0.1952176286694856</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2622520648622521</v>
+        <v>0.2590432508887585</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>170</v>
@@ -2284,19 +2284,19 @@
         <v>184864</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>160311</v>
+        <v>163052</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>209022</v>
+        <v>210421</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.23804519320281</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2064284322468182</v>
+        <v>0.2099579554778779</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.269153119815369</v>
+        <v>0.2709539311344327</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>333</v>
@@ -2305,19 +2305,19 @@
         <v>349292</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>315907</v>
+        <v>315394</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>383105</v>
+        <v>383271</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2323537293018939</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2101453923840389</v>
+        <v>0.2098039110714285</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2548463363142642</v>
+        <v>0.2549565162118652</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>562257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>536110</v>
+        <v>538442</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>584047</v>
+        <v>584823</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7737286216593297</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7377479351377478</v>
+        <v>0.7409567491112412</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8037136455517492</v>
+        <v>0.8047823713305143</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>568</v>
@@ -2355,19 +2355,19 @@
         <v>591729</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>567571</v>
+        <v>566172</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>616282</v>
+        <v>613541</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7619548067971901</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7308468801846311</v>
+        <v>0.7290460688655673</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7935715677531818</v>
+        <v>0.7900420445221222</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1124</v>
@@ -2376,19 +2376,19 @@
         <v>1153986</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1120173</v>
+        <v>1120007</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1187371</v>
+        <v>1187884</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7676462706981061</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7451536636857357</v>
+        <v>0.7450434837881348</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.789854607615961</v>
+        <v>0.7901960889285713</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>598379</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>553978</v>
+        <v>556464</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>642240</v>
+        <v>647685</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1852792309361111</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1715312854670004</v>
+        <v>0.1723010670209636</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1988603181519982</v>
+        <v>0.200546115789403</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>779</v>
@@ -2501,19 +2501,19 @@
         <v>807000</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>754157</v>
+        <v>758332</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>857349</v>
+        <v>859358</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2403832234786688</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2246427540935662</v>
+        <v>0.2258865220161908</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2553810262365986</v>
+        <v>0.2559794162515445</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1365</v>
@@ -2522,19 +2522,19 @@
         <v>1405378</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1336874</v>
+        <v>1337847</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1474211</v>
+        <v>1472305</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2133646904423134</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2029643550504572</v>
+        <v>0.2031120857314236</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2238148681723865</v>
+        <v>0.2235254337148921</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2631226</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8147207690638889</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2496</v>
@@ -2572,19 +2572,19 @@
         <v>2550138</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7596167765213312</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5076</v>
@@ -2593,19 +2593,19 @@
         <v>5181365</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7866353095576866</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>77078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61008</v>
+        <v>62230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92678</v>
+        <v>92154</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.26267785794637</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2079117650049639</v>
+        <v>0.2120769881905306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3158446920646851</v>
+        <v>0.3140588249836321</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -2962,19 +2962,19 @@
         <v>102658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84217</v>
+        <v>86824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120648</v>
+        <v>121065</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.358615261935028</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2941944006498315</v>
+        <v>0.3033002552544712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.421459769823216</v>
+        <v>0.4229168648648</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -2983,19 +2983,19 @@
         <v>179736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157503</v>
+        <v>155422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>204947</v>
+        <v>204983</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.310053531392635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2717003353118393</v>
+        <v>0.2681105136643159</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3535433943015779</v>
+        <v>0.3536061847600244</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>216352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200752</v>
+        <v>201276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>232422</v>
+        <v>231200</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.73732214205363</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6841553079353151</v>
+        <v>0.6859411750163679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7920882349950361</v>
+        <v>0.7879230118094694</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -3033,19 +3033,19 @@
         <v>183605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165615</v>
+        <v>165198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>202046</v>
+        <v>199439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.641384738064972</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5785402301767837</v>
+        <v>0.5770831351352003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7058055993501684</v>
+        <v>0.6966997447455288</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>369</v>
@@ -3054,19 +3054,19 @@
         <v>399957</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>374746</v>
+        <v>374710</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>422190</v>
+        <v>424271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.689946468607365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6464566056984221</v>
+        <v>0.6463938152399752</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7282996646881607</v>
+        <v>0.7318894863356841</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>139460</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>118346</v>
+        <v>120355</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160093</v>
+        <v>163852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2775580623848343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2355373905083895</v>
+        <v>0.2395356602914594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3186221162497042</v>
+        <v>0.3261045592990992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>166</v>
@@ -3179,19 +3179,19 @@
         <v>184293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>159038</v>
+        <v>163323</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>208547</v>
+        <v>209033</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3518612782218072</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3036447368914745</v>
+        <v>0.3118246166914518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3981696029397013</v>
+        <v>0.3990970297255879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>292</v>
@@ -3200,19 +3200,19 @@
         <v>323753</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>292426</v>
+        <v>294781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>355854</v>
+        <v>356121</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3154812145692384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2849554145290413</v>
+        <v>0.2872499599406724</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.346762219125837</v>
+        <v>0.3470231885321775</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>362993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342360</v>
+        <v>338601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>384107</v>
+        <v>382098</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7224419376151657</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6813778837502958</v>
+        <v>0.6738954407009009</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7644626094916105</v>
+        <v>0.7604643397085411</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -3250,19 +3250,19 @@
         <v>339472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>315218</v>
+        <v>314732</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364727</v>
+        <v>360442</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6481387217781928</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6018303970602987</v>
+        <v>0.6009029702744121</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6963552631085257</v>
+        <v>0.688175383308548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>657</v>
@@ -3271,19 +3271,19 @@
         <v>702465</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>670364</v>
+        <v>670097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733792</v>
+        <v>731437</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6845187854307616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6532377808741631</v>
+        <v>0.6529768114678225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7150445854709587</v>
+        <v>0.7127500400593277</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>96478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80268</v>
+        <v>80762</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>113221</v>
+        <v>114578</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3005180038418133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2500254094450555</v>
+        <v>0.2515626241462348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3526707651733211</v>
+        <v>0.356897145315266</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -3396,19 +3396,19 @@
         <v>110812</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94423</v>
+        <v>93974</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130154</v>
+        <v>128639</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3249428804975306</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2768840673587276</v>
+        <v>0.2755665881737678</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3816603551359832</v>
+        <v>0.3772186456756957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -3417,19 +3417,19 @@
         <v>207290</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>183138</v>
+        <v>183966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>231786</v>
+        <v>231817</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3130989883056255</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2766185044366918</v>
+        <v>0.2778690431800134</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3500984703787102</v>
+        <v>0.3501447728068129</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>224562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>207819</v>
+        <v>206462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>240772</v>
+        <v>240278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6994819961581866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6473292348266789</v>
+        <v>0.6431028546847339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7499745905549445</v>
+        <v>0.7484373758537651</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -3467,19 +3467,19 @@
         <v>230208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210866</v>
+        <v>212381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>246597</v>
+        <v>247046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6750571195024694</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.618339644864017</v>
+        <v>0.6227813543243039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7231159326412725</v>
+        <v>0.724433411826232</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>434</v>
@@ -3488,19 +3488,19 @@
         <v>454770</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>430274</v>
+        <v>430243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>478922</v>
+        <v>478094</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6869010116943746</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6499015296212898</v>
+        <v>0.6498552271931873</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7233814955633081</v>
+        <v>0.7221309568199867</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>119603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102084</v>
+        <v>101049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138402</v>
+        <v>139089</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3198090682943427</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2729639570638616</v>
+        <v>0.2701969708300943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.370076638552168</v>
+        <v>0.3719140943687602</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>165</v>
@@ -3613,19 +3613,19 @@
         <v>172834</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154767</v>
+        <v>151411</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>192712</v>
+        <v>193239</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4457033540364429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3991125245192359</v>
+        <v>0.3904579631038934</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4969641019928412</v>
+        <v>0.4983213402532963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>273</v>
@@ -3634,19 +3634,19 @@
         <v>292437</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265824</v>
+        <v>265029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>319782</v>
+        <v>320081</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3838962634392211</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3489599788602179</v>
+        <v>0.3479157362661734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4197925135908169</v>
+        <v>0.420185583323922</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>254379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235580</v>
+        <v>234893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>271898</v>
+        <v>272933</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6801909317056574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6299233614478318</v>
+        <v>0.6280859056312397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7270360429361383</v>
+        <v>0.7298030291699056</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>205</v>
@@ -3684,19 +3684,19 @@
         <v>214945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>195067</v>
+        <v>194540</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>233012</v>
+        <v>236368</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5542966459635571</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5030358980071588</v>
+        <v>0.5016786597467037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.600887475480764</v>
+        <v>0.6095420368961064</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>441</v>
@@ -3705,19 +3705,19 @@
         <v>469324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>441979</v>
+        <v>441680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>495937</v>
+        <v>496732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6161037365607789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5802074864091831</v>
+        <v>0.579814416676078</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6510400211397821</v>
+        <v>0.6520842637338267</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>66803</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53205</v>
+        <v>53422</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81867</v>
+        <v>82007</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3141904321371283</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2502394473504578</v>
+        <v>0.2512588934043407</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3850414508808293</v>
+        <v>0.3857033448889136</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -3830,19 +3830,19 @@
         <v>88075</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72295</v>
+        <v>73737</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101633</v>
+        <v>103208</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4027216852683742</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3305682532710413</v>
+        <v>0.337159973771348</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4647124790922543</v>
+        <v>0.471915221983895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -3851,19 +3851,19 @@
         <v>154878</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134273</v>
+        <v>134790</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174925</v>
+        <v>175771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3590802848709538</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3113080465064355</v>
+        <v>0.3125067341414934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4055592059925592</v>
+        <v>0.4075205856247917</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>145815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130751</v>
+        <v>130611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>159413</v>
+        <v>159196</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6858095678628717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6149585491191708</v>
+        <v>0.6142966551110863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7497605526495423</v>
+        <v>0.7487411065956593</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -3901,19 +3901,19 @@
         <v>130625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117067</v>
+        <v>115492</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146405</v>
+        <v>144963</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5972783147316258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5352875209077456</v>
+        <v>0.5280847780161051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6694317467289587</v>
+        <v>0.6628400262286523</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>262</v>
@@ -3922,19 +3922,19 @@
         <v>276440</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>256393</v>
+        <v>255547</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>297045</v>
+        <v>296528</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6409197151290462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5944407940074409</v>
+        <v>0.5924794143752082</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6886919534935646</v>
+        <v>0.6874932658585067</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>68682</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55009</v>
+        <v>53873</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83895</v>
+        <v>83467</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2506799615619832</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.200776672628482</v>
+        <v>0.1966318591842198</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3062075696324665</v>
+        <v>0.3046466655319056</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -4047,19 +4047,19 @@
         <v>79866</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65519</v>
+        <v>64979</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94708</v>
+        <v>95500</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2852039641570999</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2339716461530974</v>
+        <v>0.2320411291351845</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3382060542196034</v>
+        <v>0.3410341806151603</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -4068,19 +4068,19 @@
         <v>148547</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129089</v>
+        <v>128044</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170312</v>
+        <v>172177</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2681304696299767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2330068320291389</v>
+        <v>0.2311208458262952</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3074164475046461</v>
+        <v>0.3107826151240766</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>205299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190086</v>
+        <v>190514</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>218972</v>
+        <v>220108</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7493200384380169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6937924303675335</v>
+        <v>0.6953533344680944</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7992233273715181</v>
+        <v>0.8033681408157803</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -4118,19 +4118,19 @@
         <v>200165</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>185323</v>
+        <v>184531</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>214512</v>
+        <v>215052</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7147960358429002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6617939457803963</v>
+        <v>0.6589658193848394</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7660283538469024</v>
+        <v>0.7679588708648154</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>386</v>
@@ -4139,19 +4139,19 @@
         <v>405465</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>383700</v>
+        <v>381835</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>424923</v>
+        <v>425968</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7318695303700233</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6925835524953539</v>
+        <v>0.6892173848759233</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7669931679708611</v>
+        <v>0.7688791541737047</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>140126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>119415</v>
+        <v>120172</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>164234</v>
+        <v>164964</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2123509320374017</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1809651313502274</v>
+        <v>0.1821129623111496</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2488847807244881</v>
+        <v>0.2499913551946244</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>186</v>
@@ -4264,19 +4264,19 @@
         <v>200396</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>177922</v>
+        <v>176627</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>229138</v>
+        <v>226355</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2893414102434105</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2568930984280843</v>
+        <v>0.2550237922708402</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3308407400160068</v>
+        <v>0.3268228480463707</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>319</v>
@@ -4285,19 +4285,19 @@
         <v>340521</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>306611</v>
+        <v>308136</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>372093</v>
+        <v>377748</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2517772967358092</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2267042071971395</v>
+        <v>0.2278320016721967</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2751210801579412</v>
+        <v>0.279302228514445</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>519752</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>495644</v>
+        <v>494914</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>540463</v>
+        <v>539706</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7876490679625983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7511152192755118</v>
+        <v>0.7500086448053762</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8190348686497726</v>
+        <v>0.8178870376888505</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>449</v>
@@ -4335,19 +4335,19 @@
         <v>492196</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>463454</v>
+        <v>466237</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>514670</v>
+        <v>515965</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7106585897565895</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6691592599839929</v>
+        <v>0.6731771519536293</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7431069015719155</v>
+        <v>0.7449762077291598</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>932</v>
@@ -4356,19 +4356,19 @@
         <v>1011949</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>980377</v>
+        <v>974722</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1045859</v>
+        <v>1044334</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7482227032641908</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7248789198420587</v>
+        <v>0.720697771485555</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7732957928028605</v>
+        <v>0.7721679983278034</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>176290</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>153002</v>
+        <v>153712</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>200592</v>
+        <v>201341</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2271259707654276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1971222234829694</v>
+        <v>0.1980374458272498</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2584362169773379</v>
+        <v>0.2594007354087575</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>195</v>
@@ -4481,19 +4481,19 @@
         <v>214827</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>190533</v>
+        <v>190121</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>242307</v>
+        <v>244276</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2623655570900087</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2326960777546424</v>
+        <v>0.2321927838576499</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2959268494897683</v>
+        <v>0.2983311988628994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>356</v>
@@ -4502,19 +4502,19 @@
         <v>391117</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>358106</v>
+        <v>355622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>430847</v>
+        <v>427278</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2452167049194717</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2245200095455349</v>
+        <v>0.222962605213829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2701260884736161</v>
+        <v>0.2678885373534601</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>599887</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>575585</v>
+        <v>574836</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>623175</v>
+        <v>622465</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7728740292345724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.741563783022662</v>
+        <v>0.7405992645912426</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8028777765170305</v>
+        <v>0.8019625541727503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>557</v>
@@ -4552,19 +4552,19 @@
         <v>603981</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>576501</v>
+        <v>574532</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>628275</v>
+        <v>628687</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7376344429099913</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7040731505102317</v>
+        <v>0.7016688011371006</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7673039222453576</v>
+        <v>0.7678072161423501</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1110</v>
@@ -4573,19 +4573,19 @@
         <v>1203868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1164138</v>
+        <v>1167707</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1236879</v>
+        <v>1239363</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7547832950805282</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7298739115263841</v>
+        <v>0.7321114626465398</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7754799904544651</v>
+        <v>0.777037394786171</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>884519</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>835318</v>
+        <v>835822</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>937683</v>
+        <v>939353</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.259119104829989</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2447058896248633</v>
+        <v>0.2448535158396208</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2746936813146051</v>
+        <v>0.2751829376834246</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1070</v>
@@ -4698,19 +4698,19 @@
         <v>1153761</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1101597</v>
+        <v>1098845</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1215679</v>
+        <v>1211578</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3250985449949812</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3104001888165699</v>
+        <v>0.309624652132137</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3425454331336784</v>
+        <v>0.3413898471918803</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1895</v>
@@ -4719,19 +4719,19 @@
         <v>2038279</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1958411</v>
+        <v>1965428</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2116837</v>
+        <v>2122562</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2927503663868112</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2812791370273909</v>
+        <v>0.2822870209652711</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3040333240577391</v>
+        <v>0.3048555372280405</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2529041</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.740880895170011</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2219</v>
@@ -4769,19 +4769,19 @@
         <v>2395197</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6749014550050187</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4591</v>
@@ -4790,19 +4790,19 @@
         <v>4924238</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7072496336131888</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>95575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79778</v>
+        <v>80103</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114196</v>
+        <v>112830</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3271167874584568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2730487592295693</v>
+        <v>0.2741626607389294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3908498118471591</v>
+        <v>0.3861750268153573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -5159,19 +5159,19 @@
         <v>103561</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87250</v>
+        <v>87750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120084</v>
+        <v>120478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3653162432676714</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3077807737279996</v>
+        <v>0.3095436243109861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4236041069775364</v>
+        <v>0.4249921378850605</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -5180,19 +5180,19 @@
         <v>199136</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176303</v>
+        <v>176389</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>222623</v>
+        <v>222535</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3459281295267506</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3062643521157395</v>
+        <v>0.3064146092726128</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3867291112701131</v>
+        <v>0.3865763168071029</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>196599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>177978</v>
+        <v>179344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>212396</v>
+        <v>212071</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6728832125415432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6091501881528409</v>
+        <v>0.6138249731846428</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7269512407704307</v>
+        <v>0.7258373392610705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -5230,19 +5230,19 @@
         <v>179921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>163398</v>
+        <v>163004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>196232</v>
+        <v>195732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6346837567323287</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5763958930224634</v>
+        <v>0.5750078621149394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6922192262720004</v>
+        <v>0.6904563756890139</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>350</v>
@@ -5251,19 +5251,19 @@
         <v>376520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>353033</v>
+        <v>353121</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>399353</v>
+        <v>399267</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6540718704732494</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.613270888729887</v>
+        <v>0.613423683192897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6937356478842605</v>
+        <v>0.6935853907273873</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>132358</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113186</v>
+        <v>112521</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>152424</v>
+        <v>154169</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2633594905744843</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2252113648958021</v>
+        <v>0.2238885774825337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3032868757152088</v>
+        <v>0.3067576745598484</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>169</v>
@@ -5376,19 +5376,19 @@
         <v>192786</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>169897</v>
+        <v>171740</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216639</v>
+        <v>216589</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3685566716766631</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.324798178448873</v>
+        <v>0.3283216339647969</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4141563181265899</v>
+        <v>0.414062366403026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>298</v>
@@ -5397,19 +5397,19 @@
         <v>325144</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>296105</v>
+        <v>292885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>355356</v>
+        <v>354944</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3170098196632987</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2886968757439108</v>
+        <v>0.2855577092624917</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3464662377564913</v>
+        <v>0.346063904639598</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>370217</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350151</v>
+        <v>348406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>389389</v>
+        <v>390054</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7366405094255157</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6967131242847912</v>
+        <v>0.6932423254401519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7747886351041979</v>
+        <v>0.7761114225174665</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>315</v>
@@ -5447,19 +5447,19 @@
         <v>330298</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306445</v>
+        <v>306495</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>353187</v>
+        <v>351344</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6314433283233369</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5858436818734098</v>
+        <v>0.585937633596974</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6752018215511267</v>
+        <v>0.6716783660352028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>661</v>
@@ -5468,19 +5468,19 @@
         <v>700515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>670303</v>
+        <v>670715</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>729554</v>
+        <v>732774</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6829901803367013</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6535337622435087</v>
+        <v>0.653936095360402</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7113031242560893</v>
+        <v>0.7144422907375083</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>40848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31209</v>
+        <v>30033</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54515</v>
+        <v>53393</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1282252407212152</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09796645979791728</v>
+        <v>0.09427534173186024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1711265784663609</v>
+        <v>0.1676043674235953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -5593,19 +5593,19 @@
         <v>72850</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58787</v>
+        <v>58272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88851</v>
+        <v>88392</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2166168687506325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1747999383912316</v>
+        <v>0.1732703034728883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2641960179839867</v>
+        <v>0.2628283866108738</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -5614,19 +5614,19 @@
         <v>113698</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95654</v>
+        <v>95156</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134621</v>
+        <v>134843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1736185533670227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1460653190574853</v>
+        <v>0.1453043260455047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2055685315108154</v>
+        <v>0.205907241966606</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>277717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>264050</v>
+        <v>265172</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287356</v>
+        <v>288532</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8717747592787848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8288734215336391</v>
+        <v>0.8323956325764046</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9020335402020827</v>
+        <v>0.9057246582681397</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -5664,19 +5664,19 @@
         <v>263459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247458</v>
+        <v>247917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277522</v>
+        <v>278037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7833831312493674</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7358039820160134</v>
+        <v>0.7371716133891262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8252000616087687</v>
+        <v>0.8267296965271116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>554</v>
@@ -5685,19 +5685,19 @@
         <v>541176</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>520253</v>
+        <v>520031</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>559220</v>
+        <v>559718</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8263814466329773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7944314684891846</v>
+        <v>0.7940927580333942</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8539346809425148</v>
+        <v>0.8546956739544954</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>126378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108667</v>
+        <v>107439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146386</v>
+        <v>147504</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3423471723818618</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.294370293327331</v>
+        <v>0.2910445497015499</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3965469508010798</v>
+        <v>0.3995757834183579</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>148</v>
@@ -5810,19 +5810,19 @@
         <v>159685</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>139517</v>
+        <v>139850</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178748</v>
+        <v>179884</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4180644677022666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3652636843329097</v>
+        <v>0.3661363048605008</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4679731468003749</v>
+        <v>0.4709479806289661</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>268</v>
@@ -5831,19 +5831,19 @@
         <v>286063</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>258963</v>
+        <v>259867</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>312920</v>
+        <v>313197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3808515380626912</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3447729581361486</v>
+        <v>0.3459765564683754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.416607769375834</v>
+        <v>0.416977846295171</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>242773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>222765</v>
+        <v>221647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>260484</v>
+        <v>261712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6576528276181381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6034530491989205</v>
+        <v>0.6004242165816425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7056297066726691</v>
+        <v>0.7089554502984502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>206</v>
@@ -5881,19 +5881,19 @@
         <v>222277</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>203214</v>
+        <v>202078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>242445</v>
+        <v>242112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5819355322977334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5320268531996251</v>
+        <v>0.5290520193710337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6347363156670903</v>
+        <v>0.6338636951394991</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>439</v>
@@ -5902,19 +5902,19 @@
         <v>465050</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>438193</v>
+        <v>437916</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>492150</v>
+        <v>491246</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6191484619373088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.583392230624166</v>
+        <v>0.5830221537048289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6552270418638514</v>
+        <v>0.6540234435316246</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>16242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9970</v>
+        <v>9876</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25390</v>
+        <v>26068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07689768976926301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04720112670423018</v>
+        <v>0.04675595654908398</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1202053995015682</v>
+        <v>0.1234164732035595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -6027,19 +6027,19 @@
         <v>18309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11121</v>
+        <v>11110</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27682</v>
+        <v>27475</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08376157305084682</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05087790070821178</v>
+        <v>0.05082709739976338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1266402034530571</v>
+        <v>0.1256927639231018</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -6048,19 +6048,19 @@
         <v>34552</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24242</v>
+        <v>24317</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47149</v>
+        <v>47235</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08038844764475567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05640256507943688</v>
+        <v>0.05657742028667603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1096975784049197</v>
+        <v>0.1098984439500531</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>194979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185831</v>
+        <v>185153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201251</v>
+        <v>201345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.923102310230737</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8797946004984316</v>
+        <v>0.8765835267964404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9527988732957696</v>
+        <v>0.9532440434509156</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>205</v>
@@ -6098,19 +6098,19 @@
         <v>200278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190905</v>
+        <v>191112</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207466</v>
+        <v>207477</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9162384269491531</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8733597965469426</v>
+        <v>0.8743072360768981</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9491220992917881</v>
+        <v>0.9491729026002366</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>401</v>
@@ -6119,19 +6119,19 @@
         <v>395256</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382659</v>
+        <v>382573</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>405566</v>
+        <v>405491</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9196115523552443</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8903024215950802</v>
+        <v>0.8901015560499469</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9435974349205631</v>
+        <v>0.943422579713324</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>52564</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40944</v>
+        <v>40659</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68735</v>
+        <v>65297</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1997707851661479</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.155609568335967</v>
+        <v>0.1545241450048765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2612259642967993</v>
+        <v>0.2481608564826706</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -6244,19 +6244,19 @@
         <v>83827</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69546</v>
+        <v>69800</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>99583</v>
+        <v>101295</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3080185674042963</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2555432801152248</v>
+        <v>0.2564777228822865</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3659134071113853</v>
+        <v>0.3722030391480314</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -6265,19 +6265,19 @@
         <v>136392</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116544</v>
+        <v>116806</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156874</v>
+        <v>157969</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2548074313405685</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2177272935237824</v>
+        <v>0.2182173155916675</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2930726076994525</v>
+        <v>0.2951182733484021</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>210559</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194388</v>
+        <v>197826</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222179</v>
+        <v>222464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8002292148338521</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7387740357032009</v>
+        <v>0.7518391435173295</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.844390431664033</v>
+        <v>0.8454758549951235</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -6315,19 +6315,19 @@
         <v>188323</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>172567</v>
+        <v>170855</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>202604</v>
+        <v>202350</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6919814325957037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6340865928886148</v>
+        <v>0.6277969608519686</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7444567198847752</v>
+        <v>0.7435222771177136</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>392</v>
@@ -6336,19 +6336,19 @@
         <v>398881</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>378399</v>
+        <v>377304</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418729</v>
+        <v>418467</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7451925686594315</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7069273923005466</v>
+        <v>0.704881726651598</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7822727064762175</v>
+        <v>0.7817826844083325</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>176228</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153582</v>
+        <v>153667</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200414</v>
+        <v>200075</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2702087228938994</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2354869768773676</v>
+        <v>0.2356158966236613</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3072937978688657</v>
+        <v>0.3067735373971932</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>189</v>
@@ -6461,19 +6461,19 @@
         <v>209226</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>185690</v>
+        <v>183355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>235269</v>
+        <v>233184</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3035164608580279</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2693731426207617</v>
+        <v>0.2659866345122806</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3412961278273928</v>
+        <v>0.33827053665276</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>347</v>
@@ -6482,19 +6482,19 @@
         <v>385454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>351334</v>
+        <v>352126</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>420318</v>
+        <v>418274</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2873237632279406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2618897951575397</v>
+        <v>0.2624804689838329</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3133122557162735</v>
+        <v>0.3117881267734045</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>475963</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>451777</v>
+        <v>452116</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>498609</v>
+        <v>498524</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7297912771061006</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6927062021311342</v>
+        <v>0.6932264626028068</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7645130231226324</v>
+        <v>0.7643841033763387</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>455</v>
@@ -6532,19 +6532,19 @@
         <v>480115</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>454072</v>
+        <v>456157</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>503651</v>
+        <v>505986</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6964835391419721</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.658703872172607</v>
+        <v>0.6617294633472399</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7306268573792383</v>
+        <v>0.7340133654877193</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>873</v>
@@ -6553,19 +6553,19 @@
         <v>956078</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>921214</v>
+        <v>923258</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>990198</v>
+        <v>989406</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7126762367720595</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6866877442837265</v>
+        <v>0.6882118732265956</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7381102048424603</v>
+        <v>0.7375195310161671</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>146428</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>124159</v>
+        <v>126342</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168490</v>
+        <v>169214</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1880696507702009</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1594672792700259</v>
+        <v>0.162272284842162</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2164059688096556</v>
+        <v>0.2173354455332023</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>146</v>
@@ -6678,19 +6678,19 @@
         <v>166660</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>144537</v>
+        <v>142100</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>193273</v>
+        <v>193939</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2019907353148037</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1751781182922815</v>
+        <v>0.1722238184452656</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2342460764968056</v>
+        <v>0.2350526188699049</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>288</v>
@@ -6699,19 +6699,19 @@
         <v>313088</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>281604</v>
+        <v>278864</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>346197</v>
+        <v>345970</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1952320398151844</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.175599925208621</v>
+        <v>0.1738912012659586</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2158779437789855</v>
+        <v>0.2157362428572659</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>632155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>610093</v>
+        <v>609369</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>654424</v>
+        <v>652241</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8119303492297991</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7835940311903445</v>
+        <v>0.7826645544667977</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8405327207299741</v>
+        <v>0.8377277151578379</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>608</v>
@@ -6749,19 +6749,19 @@
         <v>658427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>631814</v>
+        <v>631148</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>680550</v>
+        <v>682987</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7980092646851964</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7657539235031944</v>
+        <v>0.764947381130095</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8248218817077184</v>
+        <v>0.8277761815547343</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1216</v>
@@ -6770,19 +6770,19 @@
         <v>1290582</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1257473</v>
+        <v>1257700</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1322066</v>
+        <v>1324806</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8047679601848157</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7841220562210144</v>
+        <v>0.7842637571427341</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8244000747913789</v>
+        <v>0.8261087987340413</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>786621</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>740497</v>
+        <v>735930</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>839108</v>
+        <v>840108</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2322071761018176</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2185916074531188</v>
+        <v>0.2172433561607853</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2477010751105728</v>
+        <v>0.2479962988855136</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>917</v>
@@ -6895,19 +6895,19 @@
         <v>1006904</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>951137</v>
+        <v>951954</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1059599</v>
+        <v>1063569</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2852418640555737</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2694438467051394</v>
+        <v>0.2696751715542989</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3001694791170503</v>
+        <v>0.3012940722239597</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1664</v>
@@ -6916,19 +6916,19 @@
         <v>1793526</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1719124</v>
+        <v>1720423</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1863999</v>
+        <v>1868657</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.259270455271246</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2485149825492851</v>
+        <v>0.2487027596238129</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.269457914072071</v>
+        <v>0.270131333701351</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2600963</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7677928238981824</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2408</v>
@@ -6966,19 +6966,19 @@
         <v>2523098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7147581359444263</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4886</v>
@@ -6987,19 +6987,19 @@
         <v>5124061</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.740729544728754</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>98726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82886</v>
+        <v>82962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116132</v>
+        <v>116261</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3096360495295549</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2599568531791524</v>
+        <v>0.260196308839622</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3642259912778854</v>
+        <v>0.3646307550046267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -7356,19 +7356,19 @@
         <v>106339</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94695</v>
+        <v>93158</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119848</v>
+        <v>119323</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.336451824194017</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2996109416364253</v>
+        <v>0.2947459356687571</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3791936127363268</v>
+        <v>0.3775322498213415</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>307</v>
@@ -7377,19 +7377,19 @@
         <v>205065</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184658</v>
+        <v>183143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226099</v>
+        <v>226021</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3229851311194728</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2908436111640149</v>
+        <v>0.2884569927289609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3561148595128787</v>
+        <v>0.3559913854290221</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>220119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202713</v>
+        <v>202584</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>235959</v>
+        <v>235883</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6903639504704451</v>
+        <v>0.6903639504704453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6357740087221148</v>
+        <v>0.6353692449953733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7400431468208476</v>
+        <v>0.7398036911603779</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>341</v>
@@ -7427,19 +7427,19 @@
         <v>209722</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196213</v>
+        <v>196738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>221366</v>
+        <v>222903</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.663548175805983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6208063872636732</v>
+        <v>0.6224677501786589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7003890583635747</v>
+        <v>0.7052540643312429</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>562</v>
@@ -7448,19 +7448,19 @@
         <v>429841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>408807</v>
+        <v>408885</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>450248</v>
+        <v>451763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6770148688805272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6438851404871212</v>
+        <v>0.6440086145709782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7091563888359849</v>
+        <v>0.7115430072710399</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>119903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100136</v>
+        <v>97376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143727</v>
+        <v>142830</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2755516730128771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2301250240266267</v>
+        <v>0.2237814578310717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3303029469823502</v>
+        <v>0.3282397312327254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -7573,19 +7573,19 @@
         <v>146228</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>129655</v>
+        <v>127755</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165393</v>
+        <v>163257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3113311576914706</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2760458076153031</v>
+        <v>0.2720007315538648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3521339932957058</v>
+        <v>0.3475864959080244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>298</v>
@@ -7594,19 +7594,19 @@
         <v>266131</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>239729</v>
+        <v>241411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>296634</v>
+        <v>295268</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2941245008394984</v>
+        <v>0.2941245008394983</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2649455259368538</v>
+        <v>0.2668046068929884</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3278357806563187</v>
+        <v>0.3263264540989239</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>315235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>291411</v>
+        <v>292308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335002</v>
+        <v>337762</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7244483269871229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6696970530176495</v>
+        <v>0.6717602687672743</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7698749759733733</v>
+        <v>0.7762185421689282</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>417</v>
@@ -7644,19 +7644,19 @@
         <v>323459</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>304294</v>
+        <v>306430</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>340032</v>
+        <v>341932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6886688423085295</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6478660067042943</v>
+        <v>0.6524135040919757</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7239541923846972</v>
+        <v>0.7279992684461354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>644</v>
@@ -7665,19 +7665,19 @@
         <v>638694</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>608191</v>
+        <v>609557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>665096</v>
+        <v>663414</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7058754991605016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6721642193436814</v>
+        <v>0.6736735459010763</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7350544740631464</v>
+        <v>0.7331953931070118</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>84812</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69698</v>
+        <v>70635</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97937</v>
+        <v>99257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.270456615270861</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2222607146724332</v>
+        <v>0.2252473796492641</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3123114998250496</v>
+        <v>0.3165207559868166</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -7790,19 +7790,19 @@
         <v>112231</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98128</v>
+        <v>97475</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126343</v>
+        <v>125495</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3186247334925578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2785855312459745</v>
+        <v>0.2767314300150214</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3586878813953808</v>
+        <v>0.3562799875072703</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>290</v>
@@ -7811,19 +7811,19 @@
         <v>197043</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177994</v>
+        <v>177416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>218285</v>
+        <v>219005</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2959387355763784</v>
+        <v>0.2959387355763785</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2673290736352734</v>
+        <v>0.2664601931307746</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3278419310303521</v>
+        <v>0.3289236792870396</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>228775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>215650</v>
+        <v>214330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>243889</v>
+        <v>242952</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7295433847291389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6876885001749501</v>
+        <v>0.6834792440131835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7777392853275664</v>
+        <v>0.7747526203507359</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>344</v>
@@ -7861,19 +7861,19 @@
         <v>240006</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225894</v>
+        <v>226742</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>254109</v>
+        <v>254762</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6813752665074421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6413121186046191</v>
+        <v>0.6437200124927297</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7214144687540256</v>
+        <v>0.7232685699849787</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>596</v>
@@ -7882,19 +7882,19 @@
         <v>468781</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>447539</v>
+        <v>446819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>487830</v>
+        <v>488408</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7040612644236216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6721580689696478</v>
+        <v>0.6710763207129604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7326709263647267</v>
+        <v>0.7335398068692256</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>101522</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80813</v>
+        <v>81752</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123943</v>
+        <v>124846</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2767907426383907</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2203275329755944</v>
+        <v>0.2228888200579058</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3379176475226453</v>
+        <v>0.3403796151786047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -8007,19 +8007,19 @@
         <v>155799</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>136163</v>
+        <v>135639</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174001</v>
+        <v>174451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3877452714132095</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3388755845644574</v>
+        <v>0.3375713146810504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4330451895402708</v>
+        <v>0.4341652733443868</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>330</v>
@@ -8028,19 +8028,19 @@
         <v>257322</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>230536</v>
+        <v>228721</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>286587</v>
+        <v>284451</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3347960186470829</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2999461614445996</v>
+        <v>0.2975838612613914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3728725832461053</v>
+        <v>0.3700937855638272</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>265262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>242841</v>
+        <v>241938</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>285971</v>
+        <v>285032</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7232092573616092</v>
+        <v>0.7232092573616093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6620823524773547</v>
+        <v>0.6596203848213953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7796724670244055</v>
+        <v>0.7771111799420939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -8078,19 +8078,19 @@
         <v>246009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>227807</v>
+        <v>227357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265645</v>
+        <v>266169</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6122547285867903</v>
+        <v>0.6122547285867904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5669548104597293</v>
+        <v>0.5658347266556131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6611244154355428</v>
+        <v>0.6624286853189496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>517</v>
@@ -8099,19 +8099,19 @@
         <v>511270</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>482005</v>
+        <v>484141</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>538056</v>
+        <v>539871</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6652039813529171</v>
+        <v>0.6652039813529169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6271274167538945</v>
+        <v>0.6299062144361728</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7000538385554004</v>
+        <v>0.7024161387386084</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>67835</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56139</v>
+        <v>57536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79829</v>
+        <v>79992</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3298323821833615</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2729645857179218</v>
+        <v>0.2797571524323345</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3881506035388176</v>
+        <v>0.3889424255544116</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -8224,19 +8224,19 @@
         <v>100787</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90890</v>
+        <v>91190</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112064</v>
+        <v>111524</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4442342579741792</v>
+        <v>0.4442342579741791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4006088008672511</v>
+        <v>0.4019312281476106</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4939377397936952</v>
+        <v>0.4915568191005227</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>341</v>
@@ -8245,19 +8245,19 @@
         <v>168622</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>153587</v>
+        <v>154171</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185985</v>
+        <v>186161</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3898388114073679</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.355077628949075</v>
+        <v>0.35642889486648</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4299795813265093</v>
+        <v>0.4303874100543413</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>137830</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125836</v>
+        <v>125673</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>149526</v>
+        <v>148129</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6701676178166384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6118493964611822</v>
+        <v>0.6110575744455887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7270354142820781</v>
+        <v>0.7202428475676655</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>254</v>
@@ -8295,19 +8295,19 @@
         <v>126092</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>114815</v>
+        <v>115355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>135989</v>
+        <v>135689</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5557657420258209</v>
+        <v>0.5557657420258207</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5060622602063048</v>
+        <v>0.5084431808994776</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5993911991327489</v>
+        <v>0.5980687718523896</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>429</v>
@@ -8316,19 +8316,19 @@
         <v>263922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>246559</v>
+        <v>246383</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>278957</v>
+        <v>278373</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.610161188592632</v>
+        <v>0.6101611885926322</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5700204186734907</v>
+        <v>0.5696125899456587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6449223710509251</v>
+        <v>0.64357110513352</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>63193</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52734</v>
+        <v>51975</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75764</v>
+        <v>74975</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2334369114022243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1947997019079403</v>
+        <v>0.1919984091282177</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2798758697483179</v>
+        <v>0.27696147231906</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>191</v>
@@ -8441,19 +8441,19 @@
         <v>92602</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>81064</v>
+        <v>79511</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104858</v>
+        <v>103600</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3516269743603206</v>
+        <v>0.3516269743603205</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3078158748209202</v>
+        <v>0.3019199624353333</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3981676065825233</v>
+        <v>0.3933907684446111</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>295</v>
@@ -8462,19 +8462,19 @@
         <v>155795</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>139707</v>
+        <v>139899</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173406</v>
+        <v>172491</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2917180770928549</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2615956058364542</v>
+        <v>0.2619537713274632</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3246938661830412</v>
+        <v>0.3229805405983307</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>207514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194943</v>
+        <v>195732</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217973</v>
+        <v>218732</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7665630885977758</v>
+        <v>0.7665630885977757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7201241302516821</v>
+        <v>0.7230385276809402</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8052002980920596</v>
+        <v>0.8080015908717825</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>268</v>
@@ -8512,19 +8512,19 @@
         <v>170750</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158494</v>
+        <v>159752</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182288</v>
+        <v>183841</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6483730256396795</v>
+        <v>0.6483730256396794</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6018323934174767</v>
+        <v>0.6066092315553892</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6921841251790802</v>
+        <v>0.6980800375646671</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>535</v>
@@ -8533,19 +8533,19 @@
         <v>378264</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>360653</v>
+        <v>361568</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394352</v>
+        <v>394160</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.708281922907145</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6753061338169587</v>
+        <v>0.6770194594016694</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7384043941635456</v>
+        <v>0.7380462286725368</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>215948</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>189640</v>
+        <v>189746</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>242953</v>
+        <v>243820</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3000584151149999</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2635032723826481</v>
+        <v>0.2636511367209724</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3375810575909637</v>
+        <v>0.3387863516931431</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>364</v>
@@ -8658,19 +8658,19 @@
         <v>280607</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>256820</v>
+        <v>255697</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>306578</v>
+        <v>306538</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3672053274180104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3360776152998263</v>
+        <v>0.3346088755179697</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4011915784311287</v>
+        <v>0.4011395124425094</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>566</v>
@@ -8679,19 +8679,19 @@
         <v>496555</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>457482</v>
+        <v>460748</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>533584</v>
+        <v>531846</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3346382984536825</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3083061038287154</v>
+        <v>0.3105069318563134</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3595931517393686</v>
+        <v>0.3584216476760986</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>503739</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>476734</v>
+        <v>475867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>530047</v>
+        <v>529941</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6999415848850001</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6624189424090363</v>
+        <v>0.6612136483068569</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7364967276173517</v>
+        <v>0.7363488632790276</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>585</v>
@@ -8729,19 +8729,19 @@
         <v>483561</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>457590</v>
+        <v>457630</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>507348</v>
+        <v>508471</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6327946725819896</v>
+        <v>0.6327946725819895</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5988084215688714</v>
+        <v>0.5988604875574919</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6639223847001737</v>
+        <v>0.6653911244820304</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>982</v>
@@ -8750,19 +8750,19 @@
         <v>987301</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>950272</v>
+        <v>952010</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1026374</v>
+        <v>1023108</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6653617015463175</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6404068482606315</v>
+        <v>0.6415783523239013</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6916938961712843</v>
+        <v>0.6894930681436867</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>88307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71483</v>
+        <v>72042</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105692</v>
+        <v>106181</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1106506503914687</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08956988395709629</v>
+        <v>0.09027049550416034</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1324347631204142</v>
+        <v>0.1330462918180418</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>163</v>
@@ -8875,19 +8875,19 @@
         <v>118480</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102661</v>
+        <v>101421</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138104</v>
+        <v>137898</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1428484791414528</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.123776367723397</v>
+        <v>0.1222808660415726</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1665089804458004</v>
+        <v>0.1662608113191731</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>262</v>
@@ -8896,19 +8896,19 @@
         <v>206787</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>182021</v>
+        <v>181581</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>231569</v>
+        <v>232262</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1270595556916335</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1118422831768541</v>
+        <v>0.1115715378424996</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1422864265389459</v>
+        <v>0.1427125013904977</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>709765</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>692380</v>
+        <v>691891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>726589</v>
+        <v>726030</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8893493496085313</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8675652368795856</v>
+        <v>0.866953708181958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9104301160429039</v>
+        <v>0.9097295044958391</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>896</v>
@@ -8946,19 +8946,19 @@
         <v>710930</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>691306</v>
+        <v>691512</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>726749</v>
+        <v>727989</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8571515208585472</v>
+        <v>0.8571515208585474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8334910195541994</v>
+        <v>0.8337391886808267</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8762236322766026</v>
+        <v>0.8777191339584275</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1559</v>
@@ -8967,19 +8967,19 @@
         <v>1420695</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1395913</v>
+        <v>1395220</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1445461</v>
+        <v>1445901</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8729404443083665</v>
+        <v>0.8729404443083664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8577135734610539</v>
+        <v>0.8572874986095024</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8881577168231456</v>
+        <v>0.8884284621575007</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>840246</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>785183</v>
+        <v>790827</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>892192</v>
+        <v>897296</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2450780226717041</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2290175119960609</v>
+        <v>0.2306638121045545</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2602292004054756</v>
+        <v>0.2617179488535311</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1783</v>
@@ -9092,19 +9092,19 @@
         <v>1113074</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1066079</v>
+        <v>1061514</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1166327</v>
+        <v>1156910</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3071732958456827</v>
+        <v>0.3071732958456826</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2942042599296658</v>
+        <v>0.2929444481281129</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3218693761882977</v>
+        <v>0.3192707727500052</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2689</v>
@@ -9113,19 +9113,19 @@
         <v>1953320</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1877729</v>
+        <v>1880557</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2021206</v>
+        <v>2022490</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2769846850682214</v>
+        <v>0.2769846850682213</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2662657736395296</v>
+        <v>0.2666667373365597</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2866110853565091</v>
+        <v>0.2867931468849968</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2588239</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3425</v>
@@ -9163,19 +9163,19 @@
         <v>2510528</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5824</v>
@@ -9184,19 +9184,19 @@
         <v>5098767</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="30">
